--- a/hash_scan_results.xlsx
+++ b/hash_scan_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -481,21 +481,21 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gtk-runtime-3.8.1-i686.exe</t>
+          <t>payload.dll</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'Bkav': {'method': 'blacklist', 'engine_name': 'Bkav', 'engine_version': '2.0.0.1', 'engine_update': '20250319', 'category': 'malicious', 'result': 'W32.AIDetectMalware'}, 'Lionic': {'method': 'blacklist', 'engine_name': 'Lionic', 'engine_version': '8.16', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Elastic': {'method': 'blacklist', 'engine_name': 'Elastic', 'engine_version': '4.0.193', 'engine_update': '20250310', 'category': 'undetected', 'result': None}, 'MicroWorld-eScan': {'method': 'blacklist', 'engine_name': 'MicroWorld-eScan', 'engine_version': '14.0.409.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'CTX': {'method': 'blacklist', 'engine_name': 'CTX', 'engine_version': '2024.8.29.1', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'CAT-QuickHeal': {'method': 'blacklist', 'engine_name': 'CAT-QuickHeal', 'engine_version': '22.00', 'engine_update': '20250318', 'category': 'undetected', 'result': None}, 'Skyhigh': {'method': 'blacklist', 'engine_name': 'Skyhigh', 'engine_version': 'v2021.2.0+4045', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'ALYac': {'method': 'blacklist', 'engine_name': 'ALYac', 'engine_version': '2.0.0.10', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Cylance': {'method': 'blacklist', 'engine_name': 'Cylance', 'engine_version': '3.0.0.0', 'engine_update': '20250109', 'category': 'undetected', 'result': None}, 'Zillya': {'method': 'blacklist', 'engine_name': 'Zillya', 'engine_version': '2.0.0.5320', 'engine_update': '20250318', 'category': 'undetected', 'result': None}, 'Sangfor': {'method': 'blacklist', 'engine_name': 'Sangfor', 'engine_version': '2.22.3.0', 'engine_update': '20250317', 'category': 'undetected', 'result': None}, 'K7AntiVirus': {'method': 'blacklist', 'engine_name': 'K7AntiVirus', 'engine_version': '12.224.55170', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Alibaba': {'method': 'blacklist', 'engine_name': 'Alibaba', 'engine_version': '0.3.0.5', 'engine_update': '20190527', 'category': 'undetected', 'result': None}, 'K7GW': {'method': 'blacklist', 'engine_name': 'K7GW', 'engine_version': '12.224.55172', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'CrowdStrike': {'method': 'blacklist', 'engine_name': 'CrowdStrike', 'engine_version': '1.0', 'engine_update': '20231026', 'category': 'undetected', 'result': None}, 'huorong': {'method': 'blacklist', 'engine_name': 'huorong', 'engine_version': '5e0a363:5e0a363:7669af7:7669af7', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Baidu': {'method': 'blacklist', 'engine_name': 'Baidu', 'engine_version': '1.0.0.2', 'engine_update': '20190318', 'category': 'undetected', 'result': None}, 'VirIT': {'method': 'blacklist', 'engine_name': 'VirIT', 'engine_version': '9.5.914', 'engine_update': '20250318', 'category': 'undetected', 'result': None}, 'Symantec': {'method': 'blacklist', 'engine_name': 'Symantec', 'engine_version': '1.22.0.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'tehtris': {'method': 'blacklist', 'engine_name': 'tehtris', 'engine_version': 'v0.1.4', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'ESET-NOD32': {'method': 'blacklist', 'engine_name': 'ESET-NOD32', 'engine_version': '30893', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Cynet': {'method': 'blacklist', 'engine_name': 'Cynet', 'engine_version': '4.0.3.4', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'APEX': {'method': 'blacklist', 'engine_name': 'APEX', 'engine_version': '6.635', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Paloalto': {'method': 'blacklist', 'engine_name': 'Paloalto', 'engine_version': '0.9.0.1003', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'ClamAV': {'method': 'blacklist', 'engine_name': 'ClamAV', 'engine_version': '1.4.2.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Kaspersky': {'method': 'blacklist', 'engine_name': 'Kaspersky', 'engine_version': '22.0.1.28', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'BitDefender': {'method': 'blacklist', 'engine_name': 'BitDefender', 'engine_version': '7.2', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'NANO-Antivirus': {'method': 'blacklist', 'engine_name': 'NANO-Antivirus', 'engine_version': '1.0.170.26436', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'SUPERAntiSpyware': {'method': 'blacklist', 'engine_name': 'SUPERAntiSpyware', 'engine_version': '5.6.0.1032', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Avast': {'method': 'blacklist', 'engine_name': 'Avast', 'engine_version': '23.9.8494.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Rising': {'method': 'blacklist', 'engine_name': 'Rising', 'engine_version': '25.0.0.28', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Emsisoft': {'method': 'blacklist', 'engine_name': 'Emsisoft', 'engine_version': '2024.8.0.61147', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'F-Secure': {'method': 'blacklist', 'engine_name': 'F-Secure', 'engine_version': '18.10.1547.307', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'DrWeb': {'method': 'blacklist', 'engine_name': 'DrWeb', 'engine_version': '7.0.65.5230', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'VIPRE': {'method': 'blacklist', 'engine_name': 'VIPRE', 'engine_version': '6.0.0.35', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'TrendMicro': {'method': 'blacklist', 'engine_name': 'TrendMicro', 'engine_version': '24.550.0.1002', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'McAfeeD': {'method': 'blacklist', 'engine_name': 'McAfeeD', 'engine_version': '1.2.0.7977', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Trapmine': {'method': 'blacklist', 'engine_name': 'Trapmine', 'engine_version': '4.0.4.0', 'engine_update': '20250310', 'category': 'undetected', 'result': None}, 'CMC': {'method': 'blacklist', 'engine_name': 'CMC', 'engine_version': '2.4.2022.1', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Sophos': {'method': 'blacklist', 'engine_name': 'Sophos', 'engine_version': '3.0.3.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Ikarus': {'method': 'blacklist', 'engine_name': 'Ikarus', 'engine_version': '6.3.30.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'FireEye': {'method': 'blacklist', 'engine_name': 'FireEye', 'engine_version': '35.47.0.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Jiangmin': {'method': 'blacklist', 'engine_name': 'Jiangmin', 'engine_version': '16.0.100', 'engine_update': '20250318', 'category': 'undetected', 'result': None}, 'Webroot': {'method': 'blacklist', 'engine_name': 'Webroot', 'engine_version': '1.10.0.2', 'engine_update': '20250227', 'category': 'undetected', 'result': None}, 'Avira': {'method': 'blacklist', 'engine_name': 'Avira', 'engine_version': '8.3.3.20', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Fortinet': {'method': 'blacklist', 'engine_name': 'Fortinet', 'engine_version': '7.0.30.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Antiy-AVL': {'method': 'blacklist', 'engine_name': 'Antiy-AVL', 'engine_version': '3.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Kingsoft': {'method': 'blacklist', 'engine_name': 'Kingsoft', 'engine_version': 'None', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Gridinsoft': {'method': 'blacklist', 'engine_name': 'Gridinsoft', 'engine_version': '1.0.211.174', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Xcitium': {'method': 'blacklist', 'engine_name': 'Xcitium', 'engine_version': '37564', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Arcabit': {'method': 'blacklist', 'engine_name': 'Arcabit', 'engine_version': '2022.0.0.18', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'ViRobot': {'method': 'blacklist', 'engine_name': 'ViRobot', 'engine_version': '2014.3.20.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'ZoneAlarm': {'method': 'blacklist', 'engine_name': 'ZoneAlarm', 'engine_version': '6.15-102622019', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Microsoft': {'method': 'blacklist', 'engine_name': 'Microsoft', 'engine_version': '1.1.25020.1007', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Varist': {'method': 'blacklist', 'engine_name': 'Varist', 'engine_version': '6.6.1.3', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'AhnLab-V3': {'method': 'blacklist', 'engine_name': 'AhnLab-V3', 'engine_version': '3.27.1.10534', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Acronis': {'method': 'blacklist', 'engine_name': 'Acronis', 'engine_version': '1.2.0.121', 'engine_update': '20240328', 'category': 'undetected', 'result': None}, 'McAfee': {'method': 'blacklist', 'engine_name': 'McAfee', 'engine_version': '6.0.6.653', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'TACHYON': {'method': 'blacklist', 'engine_name': 'TACHYON', 'engine_version': '2025-03-19.02', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'VBA32': {'method': 'blacklist', 'engine_name': 'VBA32', 'engine_version': '5.3.2', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Malwarebytes': {'method': 'blacklist', 'engine_name': 'Malwarebytes', 'engine_version': '4.5.5.54', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Panda': {'method': 'blacklist', 'engine_name': 'Panda', 'engine_version': '4.6.4.2', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Zoner': {'method': 'blacklist', 'engine_name': 'Zoner', 'engine_version': '2.2.2.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'TrendMicro-HouseCall': {'method': 'blacklist', 'engine_name': 'TrendMicro-HouseCall', 'engine_version': '24.550.0.1002', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Tencent': {'method': 'blacklist', 'engine_name': 'Tencent', 'engine_version': '1.0.0.1', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'Yandex': {'method': 'blacklist', 'engine_name': 'Yandex', 'engine_version': '5.5.2.24', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'SentinelOne': {'method': 'blacklist', 'engine_name': 'SentinelOne', 'engine_version': '25.1.1.1', 'engine_update': '20250114', 'category': 'undetected', 'result': None}, 'MaxSecure': {'method': 'blacklist', 'engine_name': 'MaxSecure', 'engine_version': '1.0.0.1', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'GData': {'method': 'blacklist', 'engine_name': 'GData', 'engine_version': 'GD:27.39658AVA:64.28854', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'AVG': {'method': 'blacklist', 'engine_name': 'AVG', 'engine_version': '23.9.8494.0', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'DeepInstinct': {'method': 'blacklist', 'engine_name': 'DeepInstinct', 'engine_version': '5.0.0.8', 'engine_update': '20250319', 'category': 'undetected', 'result': None}, 'alibabacloud': {'method': 'blacklist', 'engine_name': 'alibabacloud', 'engine_version': '2.2.0', 'engine_update': '20241030', 'category': 'undetected', 'result': None}, 'Trustlook': {'method': 'blacklist', 'engine_name': 'Trustlook', 'engine_version': '1.0', 'engine_update': '20250319', 'category': 'timeout', 'result': None}, 'Google': {'method': 'blacklist', 'engine_name': 'Google', 'engine_version': '1742383839', 'engine_update': '20250319', 'category': 'failure', 'result': None}, 'Avast-Mobile': {'method': 'blacklist', 'engine_name': 'Avast-Mobile', 'engine_version': '250319-00', 'engine_update': '20250319', 'category': 'type-unsupported', 'result': None}, 'SymantecMobileInsight': {'method': 'blacklist', 'engine_name': 'SymantecMobileInsight', 'engine_version': '2.0', 'engine_update': '20250124', 'category': 'type-unsupported', 'result': None}, 'BitDefenderFalx': {'method': 'blacklist', 'engine_name': 'BitDefenderFalx', 'engine_version': '2.0.936', 'engine_update': '20241203', 'category': 'type-unsupported', 'result': None}}</t>
+          <t>{'Bkav': {'method': 'blacklist', 'engine_name': 'Bkav', 'engine_version': '2.0.0.1', 'engine_update': '20250305', 'category': 'malicious', 'result': 'W64.AIDetectMalware'}, 'Lionic': {'method': 'blacklist', 'engine_name': 'Lionic', 'engine_version': '8.16', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win32.NukeSped.4!c'}, 'Elastic': {'method': 'blacklist', 'engine_name': 'Elastic', 'engine_version': '4.0.191', 'engine_update': '20250227', 'category': 'undetected', 'result': None}, 'MicroWorld-eScan': {'method': 'blacklist', 'engine_name': 'MicroWorld-eScan', 'engine_version': '14.0.409.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'CTX': {'method': 'blacklist', 'engine_name': 'CTX', 'engine_version': '2024.8.29.1', 'engine_update': '20250305', 'category': 'malicious', 'result': 'dll.trojan.nukesped'}, 'CAT-QuickHeal': {'method': 'blacklist', 'engine_name': 'CAT-QuickHeal', 'engine_version': '22.00', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Lazarus.S14574543'}, 'Skyhigh': {'method': 'blacklist', 'engine_name': 'Skyhigh', 'engine_version': 'v2021.2.0+4045', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan-FQUB!72FE869AA394'}, 'ALYac': {'method': 'blacklist', 'engine_name': 'ALYac', 'engine_version': '2.0.0.10', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Agent.revBot'}, 'Cylance': {'method': 'blacklist', 'engine_name': 'Cylance', 'engine_version': '3.0.0.0', 'engine_update': '20250109', 'category': 'malicious', 'result': 'Unsafe'}, 'Zillya': {'method': 'blacklist', 'engine_name': 'Zillya', 'engine_version': '2.0.0.5312', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Manuscrypt.Win64.1'}, 'Sangfor': {'method': 'blacklist', 'engine_name': 'Sangfor', 'engine_version': '2.22.3.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.Lazarus.IOC'}, 'CrowdStrike': {'method': 'blacklist', 'engine_name': 'CrowdStrike', 'engine_version': '1.0', 'engine_update': '20231026', 'category': 'malicious', 'result': 'win/malicious_confidence_100% (W)'}, 'Alibaba': {'method': 'blacklist', 'engine_name': 'Alibaba', 'engine_version': '0.3.0.5', 'engine_update': '20190527', 'category': 'malicious', 'result': 'Trojan:Win64/Manuscrypt.999ad78e'}, 'K7GW': {'method': 'blacklist', 'engine_name': 'K7GW', 'engine_version': '12.221.55016', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan ( 0053fa3f1 )'}, 'K7AntiVirus': {'method': 'blacklist', 'engine_name': 'K7AntiVirus', 'engine_version': '12.221.55015', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan ( 0053fa3f1 )'}, 'Arcabit': {'method': 'blacklist', 'engine_name': 'Arcabit', 'engine_version': '2022.0.0.18', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Generic.D1DDCF8D'}, 'Baidu': {'method': 'blacklist', 'engine_name': 'Baidu', 'engine_version': '1.0.0.2', 'engine_update': '20190318', 'category': 'undetected', 'result': None}, 'VirIT': {'method': 'blacklist', 'engine_name': 'VirIT', 'engine_version': '9.5.904', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'Symantec': {'method': 'blacklist', 'engine_name': 'Symantec', 'engine_version': '1.22.0.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'ML.Attribute.HighConfidence'}, 'tehtris': {'method': 'blacklist', 'engine_name': 'tehtris', 'engine_version': 'v0.1.4', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'ESET-NOD32': {'method': 'blacklist', 'engine_name': 'ESET-NOD32', 'engine_version': '30817', 'engine_update': '20250305', 'category': 'malicious', 'result': 'a variant of Win64/NukeSped.BD'}, 'APEX': {'method': 'blacklist', 'engine_name': 'APEX', 'engine_version': '6.630', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'TrendMicro-HouseCall': {'method': 'blacklist', 'engine_name': 'TrendMicro-HouseCall', 'engine_version': '10.0.0.1040', 'engine_update': '20250305', 'category': 'malicious', 'result': 'BKDR64_NUKESPED.ZJFJ-A'}, 'Paloalto': {'method': 'blacklist', 'engine_name': 'Paloalto', 'engine_version': '0.9.0.1003', 'engine_update': '20250305', 'category': 'malicious', 'result': 'generic.ml'}, 'ClamAV': {'method': 'blacklist', 'engine_name': 'ClamAV', 'engine_version': '1.4.2.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Win.Malware.Agent-7787931-0'}, 'Kaspersky': {'method': 'blacklist', 'engine_name': 'Kaspersky', 'engine_version': '22.0.1.28', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.Manuscrypt.c'}, 'BitDefender': {'method': 'blacklist', 'engine_name': 'BitDefender', 'engine_version': '7.2', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'NANO-Antivirus': {'method': 'blacklist', 'engine_name': 'NANO-Antivirus', 'engine_version': '1.0.170.26436', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.NukeSped.fjscrm'}, 'SUPERAntiSpyware': {'method': 'blacklist', 'engine_name': 'SUPERAntiSpyware', 'engine_version': '5.6.0.1032', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'Avast': {'method': 'blacklist', 'engine_name': 'Avast', 'engine_version': '23.9.8494.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Win64:Trojan-gen'}, 'Tencent': {'method': 'blacklist', 'engine_name': 'Tencent', 'engine_version': '1.0.0.1', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malware.Win32.Gencirc.115794fe'}, 'Emsisoft': {'method': 'blacklist', 'engine_name': 'Emsisoft', 'engine_version': '2024.8.0.61147', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805 (B)'}, 'F-Secure': {'method': 'blacklist', 'engine_name': 'F-Secure', 'engine_version': '18.10.1547.307', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.TR/AD.APTLazerus.heseo'}, 'DrWeb': {'method': 'blacklist', 'engine_name': 'DrWeb', 'engine_version': '7.0.65.5230', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.DownLoader45.54377'}, 'VIPRE': {'method': 'blacklist', 'engine_name': 'VIPRE', 'engine_version': '6.0.0.35', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'TrendMicro': {'method': 'blacklist', 'engine_name': 'TrendMicro', 'engine_version': '11.0.0.1006', 'engine_update': '20250305', 'category': 'malicious', 'result': 'BKDR64_NUKESPED.ZJFJ-A'}, 'McAfeeD': {'method': 'blacklist', 'engine_name': 'McAfeeD', 'engine_version': '1.2.0.7977', 'engine_update': '20250305', 'category': 'malicious', 'result': 'ti!F6E1A146543D'}, 'SentinelOne': {'method': 'blacklist', 'engine_name': 'SentinelOne', 'engine_version': '25.1.1.1', 'engine_update': '20250114', 'category': 'undetected', 'result': None}, 'Trapmine': {'method': 'blacklist', 'engine_name': 'Trapmine', 'engine_version': '4.0.4.0', 'engine_update': '20250205', 'category': 'undetected', 'result': None}, 'CMC': {'method': 'blacklist', 'engine_name': 'CMC', 'engine_version': '2.4.2022.1', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'Sophos': {'method': 'blacklist', 'engine_name': 'Sophos', 'engine_version': '2.5.5.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Troj/NukSped-A'}, 'Ikarus': {'method': 'blacklist', 'engine_name': 'Ikarus', 'engine_version': '6.3.30.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Win64.Nukesped'}, 'FireEye': {'method': 'blacklist', 'engine_name': 'FireEye', 'engine_version': '35.47.0.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Generic.mg.72fe869aa394ef0a'}, 'Jiangmin': {'method': 'blacklist', 'engine_name': 'Jiangmin', 'engine_version': '16.0.100', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Manuscrypt.ai'}, 'Webroot': {'method': 'blacklist', 'engine_name': 'Webroot', 'engine_version': '1.9.0.8', 'engine_update': '20250227', 'category': 'malicious', 'result': 'W32.Trojan.Gen'}, 'Google': {'method': 'blacklist', 'engine_name': 'Google', 'engine_version': '1741165319', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Detected'}, 'Avira': {'method': 'blacklist', 'engine_name': 'Avira', 'engine_version': '8.3.3.20', 'engine_update': '20250305', 'category': 'malicious', 'result': 'TR/AD.APTLazerus.heseo'}, 'Varist': {'method': 'blacklist', 'engine_name': 'Varist', 'engine_version': '6.6.1.3', 'engine_update': '20250303', 'category': 'malicious', 'result': 'W64/NukeSped.C.gen!Eldorado'}, 'Antiy-AVL': {'method': 'blacklist', 'engine_name': 'Antiy-AVL', 'engine_version': '3.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan/Win64.Lazarus'}, 'Kingsoft': {'method': 'blacklist', 'engine_name': 'Kingsoft', 'engine_version': 'None', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'Gridinsoft': {'method': 'blacklist', 'engine_name': 'Gridinsoft', 'engine_version': '1.0.210.174', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'Xcitium': {'method': 'blacklist', 'engine_name': 'Xcitium', 'engine_version': '37527', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malware@#2mrjjsxj99wse'}, 'Microsoft': {'method': 'blacklist', 'engine_name': 'Microsoft', 'engine_version': '1.1.25010.7', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan:Win32/Autophyte.F!dha'}, 'ViRobot': {'method': 'blacklist', 'engine_name': 'ViRobot', 'engine_version': '2014.3.20.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.S.Agent.157696.H'}, 'GData': {'method': 'blacklist', 'engine_name': 'GData', 'engine_version': 'A:25.39895B:27.39490', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'Cynet': {'method': 'blacklist', 'engine_name': 'Cynet', 'engine_version': '4.0.3.4', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malicious (score: 100)'}, 'AhnLab-V3': {'method': 'blacklist', 'engine_name': 'AhnLab-V3', 'engine_version': '3.27.1.10534', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan/Win64.Manuscrypt.C2723483'}, 'Acronis': {'method': 'blacklist', 'engine_name': 'Acronis', 'engine_version': '1.2.0.121', 'engine_update': '20240328', 'category': 'undetected', 'result': None}, 'McAfee': {'method': 'blacklist', 'engine_name': 'McAfee', 'engine_version': '6.0.6.653', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan-FQUB!72FE869AA394'}, 'TACHYON': {'method': 'blacklist', 'engine_name': 'TACHYON', 'engine_version': '2025-03-05.02', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan/W64.Manuscrypt.157696'}, 'VBA32': {'method': 'blacklist', 'engine_name': 'VBA32', 'engine_version': '5.3.1', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Win64.Manuscrypt'}, 'Malwarebytes': {'method': 'blacklist', 'engine_name': 'Malwarebytes', 'engine_version': '4.5.5.54', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malware.AI.3070944525'}, 'Panda': {'method': 'blacklist', 'engine_name': 'Panda', 'engine_version': '4.6.4.2', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trj/CI.A'}, 'Zoner': {'method': 'blacklist', 'engine_name': 'Zoner', 'engine_version': '2.2.2.0', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'Rising': {'method': 'blacklist', 'engine_name': 'Rising', 'engine_version': '25.0.0.28', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Backdoor.[Lazarus]Bankshot!1.DA08 (CLASSIC)'}, 'Yandex': {'method': 'blacklist', 'engine_name': 'Yandex', 'engine_version': '5.5.2.24', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenAsa!cjDpljsNcQc'}, 'huorong': {'method': 'blacklist', 'engine_name': 'huorong', 'engine_version': 'f2b92c6:f2b92c6:3a0f70e:3a0f70e', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Backdoor/NukeSped.d'}, 'MaxSecure': {'method': 'blacklist', 'engine_name': 'MaxSecure', 'engine_version': '1.0.0.1', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Malware.73869535.susgen'}, 'Fortinet': {'method': 'blacklist', 'engine_name': 'Fortinet', 'engine_version': '7.0.30.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'W64/NukeSped.BD!tr'}, 'AVG': {'method': 'blacklist', 'engine_name': 'AVG', 'engine_version': '23.9.8494.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Win64:Trojan-gen'}, 'DeepInstinct': {'method': 'blacklist', 'engine_name': 'DeepInstinct', 'engine_version': '5.0.0.8', 'engine_update': '20250227', 'category': 'malicious', 'result': 'MALICIOUS'}, 'alibabacloud': {'method': 'blacklist', 'engine_name': 'alibabacloud', 'engine_version': '2.2.0', 'engine_update': '20241030', 'category': 'malicious', 'result': 'Trojan:Win/NukeSped.BF'}, 'Trustlook': {'method': 'blacklist', 'engine_name': 'Trustlook', 'engine_version': '1.0', 'engine_update': '20250305', 'category': 'type-unsupported', 'result': None}, 'SymantecMobileInsight': {'method': 'blacklist', 'engine_name': 'SymantecMobileInsight', 'engine_version': '2.0', 'engine_update': '20250124', 'category': 'type-unsupported', 'result': None}, 'BitDefenderFalx': {'method': 'blacklist', 'engine_name': 'BitDefenderFalx', 'engine_version': '2.0.936', 'engine_update': '20241203', 'category': 'type-unsupported', 'result': None}, 'Avast-Mobile': {'method': 'blacklist', 'engine_name': 'Avast-Mobile', 'engine_version': '250304-02', 'engine_update': '20250304', 'category': 'type-unsupported', 'result': None}}</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8194377fb54a26cf23f9180d88d73e7f0bccd46c2133727f0a09dc2b20d325a2</t>
+          <t>72fe869aa394ef0a62bb8324857770dd</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>72fe869aa394ef0a62bb8324857770dd</t>
+          <t>de03860d8a43358554ee4fab22c3fb25cae8992b</t>
         </is>
       </c>
     </row>
@@ -552,35 +552,6 @@
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>de03860d8a43358554ee4fab22c3fb25cae8992b</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>59</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>payload.dll</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>{'Bkav': {'method': 'blacklist', 'engine_name': 'Bkav', 'engine_version': '2.0.0.1', 'engine_update': '20250305', 'category': 'malicious', 'result': 'W64.AIDetectMalware'}, 'Lionic': {'method': 'blacklist', 'engine_name': 'Lionic', 'engine_version': '8.16', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win32.NukeSped.4!c'}, 'Elastic': {'method': 'blacklist', 'engine_name': 'Elastic', 'engine_version': '4.0.191', 'engine_update': '20250227', 'category': 'undetected', 'result': None}, 'MicroWorld-eScan': {'method': 'blacklist', 'engine_name': 'MicroWorld-eScan', 'engine_version': '14.0.409.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'CTX': {'method': 'blacklist', 'engine_name': 'CTX', 'engine_version': '2024.8.29.1', 'engine_update': '20250305', 'category': 'malicious', 'result': 'dll.trojan.nukesped'}, 'CAT-QuickHeal': {'method': 'blacklist', 'engine_name': 'CAT-QuickHeal', 'engine_version': '22.00', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Lazarus.S14574543'}, 'Skyhigh': {'method': 'blacklist', 'engine_name': 'Skyhigh', 'engine_version': 'v2021.2.0+4045', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan-FQUB!72FE869AA394'}, 'ALYac': {'method': 'blacklist', 'engine_name': 'ALYac', 'engine_version': '2.0.0.10', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Agent.revBot'}, 'Cylance': {'method': 'blacklist', 'engine_name': 'Cylance', 'engine_version': '3.0.0.0', 'engine_update': '20250109', 'category': 'malicious', 'result': 'Unsafe'}, 'Zillya': {'method': 'blacklist', 'engine_name': 'Zillya', 'engine_version': '2.0.0.5312', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Manuscrypt.Win64.1'}, 'Sangfor': {'method': 'blacklist', 'engine_name': 'Sangfor', 'engine_version': '2.22.3.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.Lazarus.IOC'}, 'CrowdStrike': {'method': 'blacklist', 'engine_name': 'CrowdStrike', 'engine_version': '1.0', 'engine_update': '20231026', 'category': 'malicious', 'result': 'win/malicious_confidence_100% (W)'}, 'Alibaba': {'method': 'blacklist', 'engine_name': 'Alibaba', 'engine_version': '0.3.0.5', 'engine_update': '20190527', 'category': 'malicious', 'result': 'Trojan:Win64/Manuscrypt.999ad78e'}, 'K7GW': {'method': 'blacklist', 'engine_name': 'K7GW', 'engine_version': '12.221.55016', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan ( 0053fa3f1 )'}, 'K7AntiVirus': {'method': 'blacklist', 'engine_name': 'K7AntiVirus', 'engine_version': '12.221.55015', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan ( 0053fa3f1 )'}, 'Arcabit': {'method': 'blacklist', 'engine_name': 'Arcabit', 'engine_version': '2022.0.0.18', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Generic.D1DDCF8D'}, 'Baidu': {'method': 'blacklist', 'engine_name': 'Baidu', 'engine_version': '1.0.0.2', 'engine_update': '20190318', 'category': 'undetected', 'result': None}, 'VirIT': {'method': 'blacklist', 'engine_name': 'VirIT', 'engine_version': '9.5.904', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'Symantec': {'method': 'blacklist', 'engine_name': 'Symantec', 'engine_version': '1.22.0.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'ML.Attribute.HighConfidence'}, 'tehtris': {'method': 'blacklist', 'engine_name': 'tehtris', 'engine_version': 'v0.1.4', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'ESET-NOD32': {'method': 'blacklist', 'engine_name': 'ESET-NOD32', 'engine_version': '30817', 'engine_update': '20250305', 'category': 'malicious', 'result': 'a variant of Win64/NukeSped.BD'}, 'APEX': {'method': 'blacklist', 'engine_name': 'APEX', 'engine_version': '6.630', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'TrendMicro-HouseCall': {'method': 'blacklist', 'engine_name': 'TrendMicro-HouseCall', 'engine_version': '10.0.0.1040', 'engine_update': '20250305', 'category': 'malicious', 'result': 'BKDR64_NUKESPED.ZJFJ-A'}, 'Paloalto': {'method': 'blacklist', 'engine_name': 'Paloalto', 'engine_version': '0.9.0.1003', 'engine_update': '20250305', 'category': 'malicious', 'result': 'generic.ml'}, 'ClamAV': {'method': 'blacklist', 'engine_name': 'ClamAV', 'engine_version': '1.4.2.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Win.Malware.Agent-7787931-0'}, 'Kaspersky': {'method': 'blacklist', 'engine_name': 'Kaspersky', 'engine_version': '22.0.1.28', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.Manuscrypt.c'}, 'BitDefender': {'method': 'blacklist', 'engine_name': 'BitDefender', 'engine_version': '7.2', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'NANO-Antivirus': {'method': 'blacklist', 'engine_name': 'NANO-Antivirus', 'engine_version': '1.0.170.26436', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.NukeSped.fjscrm'}, 'SUPERAntiSpyware': {'method': 'blacklist', 'engine_name': 'SUPERAntiSpyware', 'engine_version': '5.6.0.1032', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'Avast': {'method': 'blacklist', 'engine_name': 'Avast', 'engine_version': '23.9.8494.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Win64:Trojan-gen'}, 'Tencent': {'method': 'blacklist', 'engine_name': 'Tencent', 'engine_version': '1.0.0.1', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malware.Win32.Gencirc.115794fe'}, 'Emsisoft': {'method': 'blacklist', 'engine_name': 'Emsisoft', 'engine_version': '2024.8.0.61147', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805 (B)'}, 'F-Secure': {'method': 'blacklist', 'engine_name': 'F-Secure', 'engine_version': '18.10.1547.307', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.TR/AD.APTLazerus.heseo'}, 'DrWeb': {'method': 'blacklist', 'engine_name': 'DrWeb', 'engine_version': '7.0.65.5230', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.DownLoader45.54377'}, 'VIPRE': {'method': 'blacklist', 'engine_name': 'VIPRE', 'engine_version': '6.0.0.35', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'TrendMicro': {'method': 'blacklist', 'engine_name': 'TrendMicro', 'engine_version': '11.0.0.1006', 'engine_update': '20250305', 'category': 'malicious', 'result': 'BKDR64_NUKESPED.ZJFJ-A'}, 'McAfeeD': {'method': 'blacklist', 'engine_name': 'McAfeeD', 'engine_version': '1.2.0.7977', 'engine_update': '20250305', 'category': 'malicious', 'result': 'ti!F6E1A146543D'}, 'SentinelOne': {'method': 'blacklist', 'engine_name': 'SentinelOne', 'engine_version': '25.1.1.1', 'engine_update': '20250114', 'category': 'undetected', 'result': None}, 'Trapmine': {'method': 'blacklist', 'engine_name': 'Trapmine', 'engine_version': '4.0.4.0', 'engine_update': '20250205', 'category': 'undetected', 'result': None}, 'CMC': {'method': 'blacklist', 'engine_name': 'CMC', 'engine_version': '2.4.2022.1', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'Sophos': {'method': 'blacklist', 'engine_name': 'Sophos', 'engine_version': '2.5.5.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Troj/NukSped-A'}, 'Ikarus': {'method': 'blacklist', 'engine_name': 'Ikarus', 'engine_version': '6.3.30.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Win64.Nukesped'}, 'FireEye': {'method': 'blacklist', 'engine_name': 'FireEye', 'engine_version': '35.47.0.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Generic.mg.72fe869aa394ef0a'}, 'Jiangmin': {'method': 'blacklist', 'engine_name': 'Jiangmin', 'engine_version': '16.0.100', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Manuscrypt.ai'}, 'Webroot': {'method': 'blacklist', 'engine_name': 'Webroot', 'engine_version': '1.9.0.8', 'engine_update': '20250227', 'category': 'malicious', 'result': 'W32.Trojan.Gen'}, 'Google': {'method': 'blacklist', 'engine_name': 'Google', 'engine_version': '1741165319', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Detected'}, 'Avira': {'method': 'blacklist', 'engine_name': 'Avira', 'engine_version': '8.3.3.20', 'engine_update': '20250305', 'category': 'malicious', 'result': 'TR/AD.APTLazerus.heseo'}, 'Varist': {'method': 'blacklist', 'engine_name': 'Varist', 'engine_version': '6.6.1.3', 'engine_update': '20250303', 'category': 'malicious', 'result': 'W64/NukeSped.C.gen!Eldorado'}, 'Antiy-AVL': {'method': 'blacklist', 'engine_name': 'Antiy-AVL', 'engine_version': '3.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan/Win64.Lazarus'}, 'Kingsoft': {'method': 'blacklist', 'engine_name': 'Kingsoft', 'engine_version': 'None', 'engine_update': '20250304', 'category': 'undetected', 'result': None}, 'Gridinsoft': {'method': 'blacklist', 'engine_name': 'Gridinsoft', 'engine_version': '1.0.210.174', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'Xcitium': {'method': 'blacklist', 'engine_name': 'Xcitium', 'engine_version': '37527', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malware@#2mrjjsxj99wse'}, 'Microsoft': {'method': 'blacklist', 'engine_name': 'Microsoft', 'engine_version': '1.1.25010.7', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan:Win32/Autophyte.F!dha'}, 'ViRobot': {'method': 'blacklist', 'engine_name': 'ViRobot', 'engine_version': '2014.3.20.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.Win64.S.Agent.157696.H'}, 'GData': {'method': 'blacklist', 'engine_name': 'GData', 'engine_version': 'A:25.39895B:27.39490', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenericKD.31313805'}, 'Cynet': {'method': 'blacklist', 'engine_name': 'Cynet', 'engine_version': '4.0.3.4', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malicious (score: 100)'}, 'AhnLab-V3': {'method': 'blacklist', 'engine_name': 'AhnLab-V3', 'engine_version': '3.27.1.10534', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan/Win64.Manuscrypt.C2723483'}, 'Acronis': {'method': 'blacklist', 'engine_name': 'Acronis', 'engine_version': '1.2.0.121', 'engine_update': '20240328', 'category': 'undetected', 'result': None}, 'McAfee': {'method': 'blacklist', 'engine_name': 'McAfee', 'engine_version': '6.0.6.653', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan-FQUB!72FE869AA394'}, 'TACHYON': {'method': 'blacklist', 'engine_name': 'TACHYON', 'engine_version': '2025-03-05.02', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan/W64.Manuscrypt.157696'}, 'VBA32': {'method': 'blacklist', 'engine_name': 'VBA32', 'engine_version': '5.3.1', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Win64.Manuscrypt'}, 'Malwarebytes': {'method': 'blacklist', 'engine_name': 'Malwarebytes', 'engine_version': '4.5.5.54', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Malware.AI.3070944525'}, 'Panda': {'method': 'blacklist', 'engine_name': 'Panda', 'engine_version': '4.6.4.2', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trj/CI.A'}, 'Zoner': {'method': 'blacklist', 'engine_name': 'Zoner', 'engine_version': '2.2.2.0', 'engine_update': '20250305', 'category': 'undetected', 'result': None}, 'Rising': {'method': 'blacklist', 'engine_name': 'Rising', 'engine_version': '25.0.0.28', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Backdoor.[Lazarus]Bankshot!1.DA08 (CLASSIC)'}, 'Yandex': {'method': 'blacklist', 'engine_name': 'Yandex', 'engine_version': '5.5.2.24', 'engine_update': '20250305', 'category': 'malicious', 'result': 'Trojan.GenAsa!cjDpljsNcQc'}, 'huorong': {'method': 'blacklist', 'engine_name': 'huorong', 'engine_version': 'f2b92c6:f2b92c6:3a0f70e:3a0f70e', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Backdoor/NukeSped.d'}, 'MaxSecure': {'method': 'blacklist', 'engine_name': 'MaxSecure', 'engine_version': '1.0.0.1', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Trojan.Malware.73869535.susgen'}, 'Fortinet': {'method': 'blacklist', 'engine_name': 'Fortinet', 'engine_version': '7.0.30.0', 'engine_update': '20250305', 'category': 'malicious', 'result': 'W64/NukeSped.BD!tr'}, 'AVG': {'method': 'blacklist', 'engine_name': 'AVG', 'engine_version': '23.9.8494.0', 'engine_update': '20250304', 'category': 'malicious', 'result': 'Win64:Trojan-gen'}, 'DeepInstinct': {'method': 'blacklist', 'engine_name': 'DeepInstinct', 'engine_version': '5.0.0.8', 'engine_update': '20250227', 'category': 'malicious', 'result': 'MALICIOUS'}, 'alibabacloud': {'method': 'blacklist', 'engine_name': 'alibabacloud', 'engine_version': '2.2.0', 'engine_update': '20241030', 'category': 'malicious', 'result': 'Trojan:Win/NukeSped.BF'}, 'Trustlook': {'method': 'blacklist', 'engine_name': 'Trustlook', 'engine_version': '1.0', 'engine_update': '20250305', 'category': 'type-unsupported', 'result': None}, 'SymantecMobileInsight': {'method': 'blacklist', 'engine_name': 'SymantecMobileInsight', 'engine_version': '2.0', 'engine_update': '20250124', 'category': 'type-unsupported', 'result': None}, 'BitDefenderFalx': {'method': 'blacklist', 'engine_name': 'BitDefenderFalx', 'engine_version': '2.0.936', 'engine_update': '20241203', 'category': 'type-unsupported', 'result': None}, 'Avast-Mobile': {'method': 'blacklist', 'engine_name': 'Avast-Mobile', 'engine_version': '250304-02', 'engine_update': '20250304', 'category': 'type-unsupported', 'result': None}}</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>f6e1a146543d2903146698da5698b2a214201720c0be756c6e8d2a2f27dcfaff</t>
         </is>
